--- a/DDF/Phase2.1/TY_12/Invoice_summary/Summary.xlsx
+++ b/DDF/Phase2.1/TY_12/Invoice_summary/Summary.xlsx
@@ -384,7 +384,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,7 +461,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="2">
-        <v>-2.4</v>
+        <v>-1.5</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -495,7 +495,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="2">
-        <v>-7.05</v>
+        <v>-5.78</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
